--- a/comunity_modules/account_move_import/sample_import_file/account_move_lines.xlsx
+++ b/comunity_modules/account_move_import/sample_import_file/account_move_lines.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr date1904="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26408"/>
+  <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenERP\@SVN\Noviat_Generic\V8.0\account_move_import\sample_import_file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eneldoserrata/PycharmProjects/marcos/odoo/odoo8/comunity_modules/account_move_import/sample_import_file/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="315" yWindow="345" windowWidth="25710" windowHeight="8850" tabRatio="489"/>
+    <workbookView xWindow="320" yWindow="460" windowWidth="26700" windowHeight="17540" tabRatio="489"/>
   </bookViews>
   <sheets>
     <sheet name="OE Suppliers EUR" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'OE Suppliers EUR'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcOnSave="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -307,9 +312,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -342,9 +347,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -548,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H6"/>
@@ -557,22 +562,22 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.125" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="11.25" style="7" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="16" style="7" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.25" customWidth="1"/>
+    <col min="7" max="7" width="2.1640625" customWidth="1"/>
     <col min="8" max="243" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -596,7 +601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -615,7 +620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -639,7 +644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -663,10 +668,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
